--- a/data_/accuracies.xlsx
+++ b/data_/accuracies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upswing Pursuit\Courses\Udacity\ML Engineer Nanodegree\Project\predict-suicides-to-save-lives\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upswing Pursuit\Courses\Udacity\ML Engineer Nanodegree\Project\predict-suicides-to-save-lives\data_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6FC17-E78C-4D9B-8076-8D638952A5CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3228C7CC-37AE-4AAE-8B50-1E4C2FD97AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.67281105990783407</v>
+        <v>0.68018433179723503</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.67281105990783407</v>
+        <v>0.69216589861751154</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.68663594470046085</v>
+        <v>0.69216589861751154</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.67900092506938026</v>
+        <v>0.68663594470046085</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>

--- a/data_/accuracies.xlsx
+++ b/data_/accuracies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upswing Pursuit\Courses\Udacity\ML Engineer Nanodegree\Project\predict-suicides-to-save-lives\data_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3228C7CC-37AE-4AAE-8B50-1E4C2FD97AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00527DE4-AC16-4C53-B8E8-B5786819D5A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>training</t>
   </si>
@@ -439,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +496,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0.91241548862937927</v>
       </c>
       <c r="B5">
-        <v>0.68018433179723503</v>
+        <v>0.64884792626728116</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -508,10 +507,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0.89520590043023973</v>
       </c>
       <c r="B6">
-        <v>0.69216589861751154</v>
+        <v>0.6387096774193548</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -519,10 +518,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>0.91241548862937927</v>
       </c>
       <c r="B7">
-        <v>0.69216589861751154</v>
+        <v>0.64331797235023036</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -530,10 +529,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>0.70067609096496619</v>
       </c>
       <c r="B8">
-        <v>0.68663594470046085</v>
+        <v>0.66267281105990783</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -541,10 +540,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0.65437788018433185</v>
       </c>
       <c r="B9">
-        <v>0.65990783410138254</v>
+        <v>0.69514443761524281</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -552,10 +551,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>0.67373271889400921</v>
       </c>
       <c r="B10">
-        <v>0.67004608294930879</v>
+        <v>0.68223724646588813</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -563,23 +562,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0.6645161290322581</v>
       </c>
       <c r="B11">
-        <v>0.68387096774193545</v>
+        <v>0.70467117393976642</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0.67649769585253461</v>
-      </c>
-      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
